--- a/エネマネ試作/Ps_/Ps_v_01.xlsx
+++ b/エネマネ試作/Ps_/Ps_v_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\エネマネ試作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\GitHub\solar-energy-management-\エネマネ試作\Ps_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E05A33-7748-4254-935B-DDD48C59DFEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B189FF4D-443B-42EF-B811-5B886672AB44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B900FA33-35F3-4CBF-99B0-E3BAD7DF7335}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B900FA33-35F3-4CBF-99B0-E3BAD7DF7335}"/>
   </bookViews>
   <sheets>
     <sheet name="P-t" sheetId="1" r:id="rId1"/>
@@ -3807,7 +3807,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D56"/>
     </sheetView>
   </sheetViews>
@@ -4873,7 +4873,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
